--- a/2021_Mood_Calendar.xlsx
+++ b/2021_Mood_Calendar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckozl\Google Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ckozl\mood_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4804DD4-B0B1-4E10-B470-C2F1B7EACBAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC58796-40DA-441B-BDB7-39E3859CD27B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{165811C3-6293-4429-9BF4-BB468626281D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,10 +872,19 @@
       <c r="A42" s="1">
         <v>44237</v>
       </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
